--- a/06_Energia/P0603/P0603.xlsx
+++ b/06_Energia/P0603/P0603.xlsx
@@ -185,7 +185,7 @@
     <t>https://github.com/INECC-PCCS/01_Dmine/tree/master/06_Energia/P0603</t>
   </si>
   <si>
-    <t>Promedio del porcentaje de viviendas viviendas que disponen de calentador de agua (Boiler)una Ciudad del SUN. En la agregación de datos municipales a ciudades del SUN se han excluido los Municipos en los que la muestra de la Encuesta Intercensal fue clasificada como insuficiente.</t>
+    <t>Promedio del porcentaje de viviendas viviendas que disponen de calentador de agua (Boiler) en los municipios que componen una Ciudad del SUN. En la agregación de datos municipales a ciudades del SUN se han excluido los Municipos en los que la muestra de la Encuesta Intercensal fue clasificada como insuficiente.</t>
   </si>
   <si>
     <t>La variable de integridad municipal para esta Dataset es binaria: 
